--- a/data/clean/ipap_mod.xlsx
+++ b/data/clean/ipap_mod.xlsx
@@ -460,7 +460,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total modalidades</t>
+          <t>Total modalidades</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -476,7 +476,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total modalidades</t>
+          <t>Total modalidades</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total modalidades</t>
+          <t>Total modalidades</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -508,7 +508,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total modalidades</t>
+          <t>Total modalidades</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -524,7 +524,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Total modalidades</t>
+          <t>Total modalidades</t>
         </is>
       </c>
       <c r="C6" t="n">
